--- a/output/1Y_P27_KFSDIV.xlsx
+++ b/output/1Y_P27_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.5636</v>
       </c>
       <c r="C2" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D2" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.1788</v>
       </c>
       <c r="C3" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D3" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E3" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>9716.299499999999</v>
+        <v>9677.4288</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9716.299499999999</v>
+        <v>9677.4288</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0284</v>
+        <v>-0.0323</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>14.5668</v>
       </c>
       <c r="C4" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D4" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E4" s="1">
-        <v>1496.0618</v>
+        <v>1493.0693</v>
       </c>
       <c r="F4" s="1">
-        <v>686.4926</v>
+        <v>685.1192</v>
       </c>
       <c r="H4" s="1">
-        <v>21792.8333</v>
+        <v>21705.7935</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21792.8333</v>
+        <v>21705.7935</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.3684</v>
+        <v>13.3952</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.1053</v>
+        <v>0.1031</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>13.962</v>
       </c>
       <c r="C5" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D5" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E5" s="1">
-        <v>2182.5544</v>
+        <v>2178.1885</v>
       </c>
       <c r="F5" s="1">
-        <v>716.2298</v>
+        <v>714.7963</v>
       </c>
       <c r="H5" s="1">
-        <v>30472.8244</v>
+        <v>30351.0965</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30472.8244</v>
+        <v>30351.0965</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.7454</v>
+        <v>13.7729</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>673.2278</v>
+        <v>671.8812</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9326.772199999999</v>
+        <v>-9328.1188</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0415</v>
+        <v>-0.0427</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>12.2659</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E6" s="1">
-        <v>2898.7842</v>
+        <v>2892.9848</v>
       </c>
       <c r="F6" s="1">
-        <v>822.1291</v>
+        <v>820.4699000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>35556.1966</v>
+        <v>35414.184</v>
       </c>
       <c r="I6" s="1">
-        <v>673.2278</v>
+        <v>671.8812</v>
       </c>
       <c r="J6" s="1">
-        <v>36229.4244</v>
+        <v>36086.0652</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.7989</v>
+        <v>13.8266</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10084.1535</v>
+        <v>-10083.9851</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.1048</v>
+        <v>-0.1057</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>12.4103</v>
       </c>
       <c r="C7" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D7" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E7" s="1">
-        <v>3720.9133</v>
+        <v>3713.4547</v>
       </c>
       <c r="F7" s="1">
-        <v>812.5632000000001</v>
+        <v>810.9226</v>
       </c>
       <c r="H7" s="1">
-        <v>46177.65</v>
+        <v>45992.9929</v>
       </c>
       <c r="I7" s="1">
-        <v>589.0743</v>
+        <v>587.896</v>
       </c>
       <c r="J7" s="1">
-        <v>46766.7243</v>
+        <v>46580.8889</v>
       </c>
       <c r="K7" s="1">
-        <v>50084.1535</v>
+        <v>50083.9851</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4602</v>
+        <v>13.4872</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10084.1535</v>
+        <v>-10083.9851</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0116</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>12.3976</v>
       </c>
       <c r="C8" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D8" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E8" s="1">
-        <v>4533.4765</v>
+        <v>4524.3773</v>
       </c>
       <c r="F8" s="1">
-        <v>813.3955999999999</v>
+        <v>811.7582</v>
       </c>
       <c r="H8" s="1">
-        <v>56204.2283</v>
+        <v>55979.2156</v>
       </c>
       <c r="I8" s="1">
-        <v>504.9209</v>
+        <v>503.9109</v>
       </c>
       <c r="J8" s="1">
-        <v>56709.1491</v>
+        <v>56483.1265</v>
       </c>
       <c r="K8" s="1">
-        <v>60168.307</v>
+        <v>60167.9703</v>
       </c>
       <c r="L8" s="1">
-        <v>13.272</v>
+        <v>13.2986</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1674.411</v>
+        <v>1671.0546</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8409.7425</v>
+        <v>-8412.9305</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.001</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>12.9013</v>
       </c>
       <c r="C9" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D9" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E9" s="1">
-        <v>5346.8721</v>
+        <v>5336.1355</v>
       </c>
       <c r="F9" s="1">
-        <v>807.5895</v>
+        <v>805.9127999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>68981.6012</v>
+        <v>68705.4129</v>
       </c>
       <c r="I9" s="1">
-        <v>2095.1784</v>
+        <v>2090.9803</v>
       </c>
       <c r="J9" s="1">
-        <v>71076.77959999999</v>
+        <v>70796.39320000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70252.4604</v>
+        <v>70251.95540000001</v>
       </c>
       <c r="L9" s="1">
-        <v>13.139</v>
+        <v>13.1653</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10419.0357</v>
+        <v>-10418.1961</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0655</v>
+        <v>0.0649</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>13.3527</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E10" s="1">
-        <v>6154.4617</v>
+        <v>6142.0483</v>
       </c>
       <c r="F10" s="1">
-        <v>780.2943</v>
+        <v>778.6686</v>
       </c>
       <c r="H10" s="1">
-        <v>82178.6802</v>
+        <v>81848.936</v>
       </c>
       <c r="I10" s="1">
-        <v>1676.1427</v>
+        <v>1672.7843</v>
       </c>
       <c r="J10" s="1">
-        <v>83854.82279999999</v>
+        <v>83521.7203</v>
       </c>
       <c r="K10" s="1">
-        <v>80671.4961</v>
+        <v>80670.15150000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1078</v>
+        <v>13.1341</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10419.0357</v>
+        <v>-10418.1961</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0343</v>
+        <v>0.0337</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>13.8804</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E11" s="1">
-        <v>6934.756</v>
+        <v>6920.7169</v>
       </c>
       <c r="F11" s="1">
-        <v>750.6294</v>
+        <v>749.0685999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>96257.1865</v>
+        <v>95869.9228</v>
       </c>
       <c r="I11" s="1">
-        <v>1257.107</v>
+        <v>1254.5882</v>
       </c>
       <c r="J11" s="1">
-        <v>97514.2936</v>
+        <v>97124.511</v>
       </c>
       <c r="K11" s="1">
-        <v>91090.5318</v>
+        <v>91088.34759999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1354</v>
+        <v>13.1617</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2769.5077</v>
+        <v>2763.9217</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7649.5279</v>
+        <v>-7654.2743</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.039</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>14.6268</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E12" s="1">
-        <v>7685.3853</v>
+        <v>7669.7855</v>
       </c>
       <c r="F12" s="1">
-        <v>806.9974</v>
+        <v>805.1362</v>
       </c>
       <c r="H12" s="1">
-        <v>112412.5938</v>
+        <v>111960.4609</v>
       </c>
       <c r="I12" s="1">
-        <v>3607.5791</v>
+        <v>3600.3139</v>
       </c>
       <c r="J12" s="1">
-        <v>116020.1729</v>
+        <v>115560.7748</v>
       </c>
       <c r="K12" s="1">
-        <v>101509.5674</v>
+        <v>101506.5436</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2081</v>
+        <v>13.2346</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11803.7895</v>
+        <v>-11800.1569</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0791</v>
+        <v>0.0788</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>15.3636</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E13" s="1">
-        <v>8492.3827</v>
+        <v>8474.921700000001</v>
       </c>
       <c r="F13" s="1">
-        <v>768.2958</v>
+        <v>766.5227</v>
       </c>
       <c r="H13" s="1">
-        <v>130473.5709</v>
+        <v>129945.1273</v>
       </c>
       <c r="I13" s="1">
-        <v>1803.7895</v>
+        <v>1800.1569</v>
       </c>
       <c r="J13" s="1">
-        <v>132277.3605</v>
+        <v>131745.2842</v>
       </c>
       <c r="K13" s="1">
-        <v>113313.357</v>
+        <v>113306.7006</v>
       </c>
       <c r="L13" s="1">
-        <v>13.3429</v>
+        <v>13.3696</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11803.7895</v>
+        <v>-11800.1569</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0497</v>
+        <v>0.0493</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>13.8711</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E14" s="1">
-        <v>9260.6785</v>
+        <v>9241.4444</v>
       </c>
       <c r="F14" s="1">
-        <v>-9260.6785</v>
+        <v>-9241.4444</v>
       </c>
       <c r="H14" s="1">
-        <v>128455.7978</v>
+        <v>127933.0116</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>128455.7978</v>
+        <v>127933.0116</v>
       </c>
       <c r="K14" s="1">
-        <v>125117.1465</v>
+        <v>125106.8575</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5106</v>
+        <v>13.5376</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3821.5722</v>
+        <v>3813.7148</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>132277.37</v>
+        <v>131746.7264</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.09710000000000001</v>
+        <v>-0.0974</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.5636</v>
       </c>
       <c r="C2" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D2" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.1788</v>
       </c>
       <c r="C3" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D3" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E3" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9716.299499999999</v>
+        <v>9677.4288</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9716.299499999999</v>
+        <v>9677.4288</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0284</v>
+        <v>-0.0323</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>14.5668</v>
       </c>
       <c r="C4" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D4" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E4" s="1">
-        <v>1496.0618</v>
+        <v>1493.0693</v>
       </c>
       <c r="F4" s="1">
-        <v>563.4159</v>
+        <v>570.5309</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>21792.8333</v>
+        <v>21705.7935</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21792.8333</v>
+        <v>21705.7935</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.3684</v>
+        <v>13.3952</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8207.1667</v>
+        <v>-8327.468500000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.1053</v>
+        <v>0.1031</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>13.962</v>
       </c>
       <c r="C5" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D5" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E5" s="1">
-        <v>2059.4777</v>
+        <v>2063.6002</v>
       </c>
       <c r="F5" s="1">
-        <v>805.4413</v>
+        <v>807.0553</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>28754.4279</v>
+        <v>28754.4109</v>
       </c>
       <c r="I5" s="1">
-        <v>1792.8333</v>
+        <v>1672.5315</v>
       </c>
       <c r="J5" s="1">
-        <v>30547.2612</v>
+        <v>30426.9425</v>
       </c>
       <c r="K5" s="1">
-        <v>28207.1667</v>
+        <v>28327.4685</v>
       </c>
       <c r="L5" s="1">
-        <v>13.6963</v>
+        <v>13.7272</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>673.2278</v>
+        <v>671.8812</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10572.3443</v>
+        <v>-10618.8223</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0392</v>
+        <v>-0.0403</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>12.2659</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E6" s="1">
-        <v>2864.9191</v>
+        <v>2870.6554</v>
       </c>
       <c r="F6" s="1">
-        <v>914.771</v>
+        <v>899.3702</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>35140.8108</v>
+        <v>35140.8415</v>
       </c>
       <c r="I6" s="1">
-        <v>1220.489</v>
+        <v>1053.7093</v>
       </c>
       <c r="J6" s="1">
-        <v>36361.2998</v>
+        <v>36194.5508</v>
       </c>
       <c r="K6" s="1">
-        <v>39452.7388</v>
+        <v>39618.1719</v>
       </c>
       <c r="L6" s="1">
-        <v>13.771</v>
+        <v>13.8011</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11220.489</v>
+        <v>-11053.7093</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.1032</v>
+        <v>-0.1047</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>12.4103</v>
       </c>
       <c r="C7" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D7" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E7" s="1">
-        <v>3779.69</v>
+        <v>3770.0256</v>
       </c>
       <c r="F7" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>46907.087</v>
+        <v>46693.6524</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>46907.087</v>
+        <v>46693.6524</v>
       </c>
       <c r="K7" s="1">
-        <v>50673.2278</v>
+        <v>50671.8812</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4067</v>
+        <v>13.4407</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0118</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>12.3976</v>
       </c>
       <c r="C8" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D8" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E8" s="1">
-        <v>4585.4723</v>
+        <v>4574.1944</v>
       </c>
       <c r="F8" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>56848.8515</v>
+        <v>56595.593</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>56848.8515</v>
+        <v>56595.593</v>
       </c>
       <c r="K8" s="1">
-        <v>60673.2278</v>
+        <v>60671.8812</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2316</v>
+        <v>13.2639</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1700.8605</v>
+        <v>1696.5115</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8299.139499999999</v>
+        <v>-8303.488499999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.001</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>12.9013</v>
       </c>
       <c r="C9" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D9" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E9" s="1">
-        <v>5392.08</v>
+        <v>5379.1919</v>
       </c>
       <c r="F9" s="1">
-        <v>808.8454</v>
+        <v>834.1591</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>69564.8422</v>
+        <v>69259.7849</v>
       </c>
       <c r="I9" s="1">
-        <v>1700.8605</v>
+        <v>1696.5115</v>
       </c>
       <c r="J9" s="1">
-        <v>71265.70269999999</v>
+        <v>70956.29640000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70673.22779999999</v>
+        <v>70671.8812</v>
       </c>
       <c r="L9" s="1">
-        <v>13.1069</v>
+        <v>13.138</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10435.2386</v>
+        <v>-10783.3412</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.06610000000000001</v>
+        <v>0.0655</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>13.3527</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E10" s="1">
-        <v>6200.9255</v>
+        <v>6213.3509</v>
       </c>
       <c r="F10" s="1">
-        <v>539.2844</v>
+        <v>540.3636</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>82799.0978</v>
+        <v>82799.1146</v>
       </c>
       <c r="I10" s="1">
-        <v>1265.6219</v>
+        <v>913.1704</v>
       </c>
       <c r="J10" s="1">
-        <v>84064.7196</v>
+        <v>83712.285</v>
       </c>
       <c r="K10" s="1">
-        <v>81108.46649999999</v>
+        <v>81455.2224</v>
       </c>
       <c r="L10" s="1">
-        <v>13.0801</v>
+        <v>13.1097</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7200.9022</v>
+        <v>-7229.7949</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0344</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>13.8804</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E11" s="1">
-        <v>6740.2098</v>
+        <v>6753.7145</v>
       </c>
       <c r="F11" s="1">
-        <v>464.1935</v>
+        <v>465.1469</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>93556.80869999999</v>
+        <v>93556.5061</v>
       </c>
       <c r="I11" s="1">
-        <v>4064.7196</v>
+        <v>3683.3755</v>
       </c>
       <c r="J11" s="1">
-        <v>97621.5284</v>
+        <v>97239.88159999999</v>
       </c>
       <c r="K11" s="1">
-        <v>88309.36870000001</v>
+        <v>88685.0172</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1019</v>
+        <v>13.1313</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2790.4165</v>
+        <v>2796.0079</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-3652.7748</v>
+        <v>-3673.3482</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0378</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>14.6268</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E12" s="1">
-        <v>7204.4033</v>
+        <v>7218.8614</v>
       </c>
       <c r="F12" s="1">
-        <v>316.0386</v>
+        <v>316.6238</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>105377.3666</v>
+        <v>105378.0518</v>
       </c>
       <c r="I12" s="1">
-        <v>10411.9448</v>
+        <v>10010.0273</v>
       </c>
       <c r="J12" s="1">
-        <v>115789.3115</v>
+        <v>115388.0791</v>
       </c>
       <c r="K12" s="1">
-        <v>94752.56</v>
+        <v>95154.37330000001</v>
       </c>
       <c r="L12" s="1">
-        <v>13.152</v>
+        <v>13.1814</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-4622.6334</v>
+        <v>-4640.4707</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0759</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>15.3636</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E13" s="1">
-        <v>7520.4419</v>
+        <v>7535.4853</v>
       </c>
       <c r="F13" s="1">
-        <v>290.2274</v>
+        <v>290.8228</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>115541.0616</v>
+        <v>115540.8423</v>
       </c>
       <c r="I13" s="1">
-        <v>15789.3115</v>
+        <v>15369.5566</v>
       </c>
       <c r="J13" s="1">
-        <v>131330.3731</v>
+        <v>130910.3989</v>
       </c>
       <c r="K13" s="1">
-        <v>99375.1933</v>
+        <v>99794.844</v>
       </c>
       <c r="L13" s="1">
-        <v>13.214</v>
+        <v>13.2433</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-4458.9384</v>
+        <v>-4477.0433</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0441</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>13.8711</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E14" s="1">
-        <v>7810.6694</v>
+        <v>7826.3081</v>
       </c>
       <c r="F14" s="1">
-        <v>-7810.6694</v>
+        <v>-7826.3081</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>108342.576</v>
+        <v>108342.714</v>
       </c>
       <c r="I14" s="1">
-        <v>21330.3731</v>
+        <v>20892.5133</v>
       </c>
       <c r="J14" s="1">
-        <v>129672.949</v>
+        <v>129235.2274</v>
       </c>
       <c r="K14" s="1">
-        <v>103834.1317</v>
+        <v>104271.8873</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2939</v>
+        <v>13.3233</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3384.1989</v>
+        <v>3390.9684</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111726.7748</v>
+        <v>111733.6824</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0825</v>
+        <v>-0.0829</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>13.5636</v>
       </c>
       <c r="C2" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D2" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.1788</v>
       </c>
       <c r="C3" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D3" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E3" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9716.299499999999</v>
+        <v>9677.4288</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9716.299499999999</v>
+        <v>9677.4288</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0284</v>
+        <v>-0.0323</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>14.5668</v>
       </c>
       <c r="C4" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D4" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E4" s="1">
-        <v>1496.0618</v>
+        <v>1493.0693</v>
       </c>
       <c r="F4" s="1">
-        <v>573.7304</v>
+        <v>580.8661</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21792.8333</v>
+        <v>21705.7935</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21792.8333</v>
+        <v>21705.7935</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.3684</v>
+        <v>13.3952</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8357.4167</v>
+        <v>-8478.321</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.1053</v>
+        <v>0.1031</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>13.962</v>
       </c>
       <c r="C5" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D5" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E5" s="1">
-        <v>2069.7923</v>
+        <v>2073.9354</v>
       </c>
       <c r="F5" s="1">
-        <v>816.6854</v>
+        <v>818.3219</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>28898.4396</v>
+        <v>28898.4226</v>
       </c>
       <c r="I5" s="1">
-        <v>1642.5833</v>
+        <v>1521.679</v>
       </c>
       <c r="J5" s="1">
-        <v>30541.0229</v>
+        <v>30420.1016</v>
       </c>
       <c r="K5" s="1">
-        <v>28357.4167</v>
+        <v>28478.321</v>
       </c>
       <c r="L5" s="1">
-        <v>13.7006</v>
+        <v>13.7315</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>673.2278</v>
+        <v>671.8812</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10729.3338</v>
+        <v>-10776.4416</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0394</v>
+        <v>-0.0406</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>12.2659</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E6" s="1">
-        <v>2886.4777</v>
+        <v>2892.2572</v>
       </c>
       <c r="F6" s="1">
-        <v>889.7227</v>
+        <v>874.2718</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>35405.2465</v>
+        <v>35405.2775</v>
       </c>
       <c r="I6" s="1">
-        <v>913.2495</v>
+        <v>745.2374</v>
       </c>
       <c r="J6" s="1">
-        <v>36318.496</v>
+        <v>36150.5148</v>
       </c>
       <c r="K6" s="1">
-        <v>39759.9783</v>
+        <v>39926.6438</v>
       </c>
       <c r="L6" s="1">
-        <v>13.7746</v>
+        <v>13.8047</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10913.2495</v>
+        <v>-10745.2374</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.1042</v>
+        <v>-0.1056</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>12.4103</v>
       </c>
       <c r="C7" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D7" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E7" s="1">
-        <v>3776.2004</v>
+        <v>3766.529</v>
       </c>
       <c r="F7" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>46863.7793</v>
+        <v>46650.3449</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>46863.7793</v>
+        <v>46650.3449</v>
       </c>
       <c r="K7" s="1">
-        <v>50673.2278</v>
+        <v>50671.8812</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4191</v>
+        <v>13.4532</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0118</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>12.3976</v>
       </c>
       <c r="C8" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D8" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E8" s="1">
-        <v>4581.9827</v>
+        <v>4570.6978</v>
       </c>
       <c r="F8" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>56805.5881</v>
+        <v>56552.3299</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>56805.5881</v>
+        <v>56552.3299</v>
       </c>
       <c r="K8" s="1">
-        <v>60673.2278</v>
+        <v>60671.8812</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2417</v>
+        <v>13.2741</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1699.2902</v>
+        <v>1694.938</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8300.709800000001</v>
+        <v>-8305.062</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.001</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>12.9013</v>
       </c>
       <c r="C9" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D9" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E9" s="1">
-        <v>5388.5904</v>
+        <v>5375.6952</v>
       </c>
       <c r="F9" s="1">
-        <v>906.8233</v>
+        <v>904.6768</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>69519.8211</v>
+        <v>69214.764</v>
       </c>
       <c r="I9" s="1">
-        <v>1699.2902</v>
+        <v>1694.938</v>
       </c>
       <c r="J9" s="1">
-        <v>71219.1113</v>
+        <v>70909.702</v>
       </c>
       <c r="K9" s="1">
-        <v>70673.22779999999</v>
+        <v>70671.8812</v>
       </c>
       <c r="L9" s="1">
-        <v>13.1153</v>
+        <v>13.1466</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11699.2902</v>
+        <v>-11694.938</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.06610000000000001</v>
+        <v>0.0655</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>13.3527</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E10" s="1">
-        <v>6295.4137</v>
+        <v>6280.372</v>
       </c>
       <c r="F10" s="1">
-        <v>581.1849</v>
+        <v>610.0045</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>84060.7703</v>
+        <v>83692.2378</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>84060.7703</v>
+        <v>83692.2378</v>
       </c>
       <c r="K10" s="1">
-        <v>82372.518</v>
+        <v>82366.8192</v>
       </c>
       <c r="L10" s="1">
-        <v>13.0845</v>
+        <v>13.115</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7760.388</v>
+        <v>-8161.5557</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.035</v>
+        <v>0.0344</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>13.8804</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E11" s="1">
-        <v>6876.5986</v>
+        <v>6890.3766</v>
       </c>
       <c r="F11" s="1">
-        <v>492.0841</v>
+        <v>493.094</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>95449.9394</v>
+        <v>95449.6306</v>
       </c>
       <c r="I11" s="1">
-        <v>2239.612</v>
+        <v>1838.4443</v>
       </c>
       <c r="J11" s="1">
-        <v>97689.5514</v>
+        <v>97288.07490000001</v>
       </c>
       <c r="K11" s="1">
-        <v>90132.9059</v>
+        <v>90528.3749</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1072</v>
+        <v>13.1384</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2832.9362</v>
+        <v>2826.1674</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-3997.3885</v>
+        <v>-4031.8821</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0386</v>
+        <v>0.0384</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>14.6268</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E12" s="1">
-        <v>7368.6828</v>
+        <v>7383.4705</v>
       </c>
       <c r="F12" s="1">
-        <v>342.6188</v>
+        <v>343.2561</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>107780.2489</v>
+        <v>107780.9496</v>
       </c>
       <c r="I12" s="1">
-        <v>8242.2235</v>
+        <v>7806.5622</v>
       </c>
       <c r="J12" s="1">
-        <v>116022.4724</v>
+        <v>115587.5119</v>
       </c>
       <c r="K12" s="1">
-        <v>96963.2306</v>
+        <v>97386.4244</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1588</v>
+        <v>13.1898</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-5011.4165</v>
+        <v>-5030.7962</v>
       </c>
       <c r="Q12" s="3">
         <v>0.0774</v>
@@ -2801,34 +2801,34 @@
         <v>15.3636</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E13" s="1">
-        <v>7711.3015</v>
+        <v>7726.7267</v>
       </c>
       <c r="F13" s="1">
-        <v>317.7817</v>
+        <v>318.4327</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>118473.3524</v>
+        <v>118473.1275</v>
       </c>
       <c r="I13" s="1">
-        <v>13230.807</v>
+        <v>12775.766</v>
       </c>
       <c r="J13" s="1">
-        <v>131704.1594</v>
+        <v>131248.8935</v>
       </c>
       <c r="K13" s="1">
-        <v>101974.6472</v>
+        <v>102417.2207</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2241</v>
+        <v>13.2549</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-4882.2714</v>
+        <v>-4902.0798</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0451</v>
@@ -2854,49 +2854,49 @@
         <v>13.8711</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E14" s="1">
-        <v>8029.0833</v>
+        <v>8045.1593</v>
       </c>
       <c r="F14" s="1">
-        <v>-8029.0833</v>
+        <v>-8045.1593</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>111372.2169</v>
+        <v>111372.3589</v>
       </c>
       <c r="I14" s="1">
-        <v>18348.5356</v>
+        <v>17873.6862</v>
       </c>
       <c r="J14" s="1">
-        <v>129720.7526</v>
+        <v>129246.0451</v>
       </c>
       <c r="K14" s="1">
-        <v>106856.9185</v>
+        <v>107319.3005</v>
       </c>
       <c r="L14" s="1">
-        <v>13.3087</v>
+        <v>13.3396</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3470.0857</v>
+        <v>3477.027</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114842.3026</v>
+        <v>114849.3859</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.08459999999999999</v>
+        <v>-0.08500000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.5636</v>
       </c>
       <c r="C2" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D2" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.1788</v>
       </c>
       <c r="C3" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D3" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E3" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9716.299499999999</v>
+        <v>9677.4288</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9716.299499999999</v>
+        <v>9677.4288</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0284</v>
+        <v>-0.0323</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>14.5668</v>
       </c>
       <c r="C4" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D4" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E4" s="1">
-        <v>1496.0618</v>
+        <v>1493.0693</v>
       </c>
       <c r="F4" s="1">
-        <v>584.0793</v>
+        <v>591.2356</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21792.8333</v>
+        <v>21705.7935</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21792.8333</v>
+        <v>21705.7935</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.3684</v>
+        <v>13.3952</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8508.1667</v>
+        <v>-8629.675499999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.1053</v>
+        <v>0.1031</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>13.962</v>
       </c>
       <c r="C5" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D5" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E5" s="1">
-        <v>2080.1411</v>
+        <v>2084.3049</v>
       </c>
       <c r="F5" s="1">
-        <v>823.0793</v>
+        <v>812.7465999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29042.9306</v>
+        <v>29042.9135</v>
       </c>
       <c r="I5" s="1">
-        <v>1491.8333</v>
+        <v>1370.3245</v>
       </c>
       <c r="J5" s="1">
-        <v>30534.7639</v>
+        <v>30413.238</v>
       </c>
       <c r="K5" s="1">
-        <v>28508.1667</v>
+        <v>28629.6755</v>
       </c>
       <c r="L5" s="1">
-        <v>13.7049</v>
+        <v>13.7358</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>673.2278</v>
+        <v>671.8812</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10818.6055</v>
+        <v>-10698.4433</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0396</v>
+        <v>-0.0408</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>12.2659</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E6" s="1">
-        <v>2903.2205</v>
+        <v>2897.0515</v>
       </c>
       <c r="F6" s="1">
-        <v>870.1545</v>
+        <v>868.3033</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>35610.6117</v>
+        <v>35463.9664</v>
       </c>
       <c r="I6" s="1">
-        <v>673.2278</v>
+        <v>671.8812</v>
       </c>
       <c r="J6" s="1">
-        <v>36283.8396</v>
+        <v>36135.8475</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.7778</v>
+        <v>13.8071</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10673.2278</v>
+        <v>-10671.8812</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.1049</v>
+        <v>-0.1058</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>12.4103</v>
       </c>
       <c r="C7" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D7" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E7" s="1">
-        <v>3773.3749</v>
+        <v>3765.3548</v>
       </c>
       <c r="F7" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>46828.7149</v>
+        <v>46635.8015</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>46828.7149</v>
+        <v>46635.8015</v>
       </c>
       <c r="K7" s="1">
-        <v>50673.2278</v>
+        <v>50671.8812</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4292</v>
+        <v>13.4574</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0118</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>12.3976</v>
       </c>
       <c r="C8" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D8" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E8" s="1">
-        <v>4579.1572</v>
+        <v>4569.5236</v>
       </c>
       <c r="F8" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>56770.5596</v>
+        <v>56537.8013</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>56770.5596</v>
+        <v>56537.8013</v>
       </c>
       <c r="K8" s="1">
-        <v>60673.2278</v>
+        <v>60671.8812</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2499</v>
+        <v>13.2775</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1698.0187</v>
+        <v>1694.4096</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8301.981299999999</v>
+        <v>-8305.590399999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.001</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>12.9013</v>
       </c>
       <c r="C9" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D9" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E9" s="1">
-        <v>5385.765</v>
+        <v>5374.521</v>
       </c>
       <c r="F9" s="1">
-        <v>906.7248</v>
+        <v>904.6359</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>69483.3694</v>
+        <v>69199.6452</v>
       </c>
       <c r="I9" s="1">
-        <v>1698.0187</v>
+        <v>1694.4096</v>
       </c>
       <c r="J9" s="1">
-        <v>71181.3881</v>
+        <v>70894.0548</v>
       </c>
       <c r="K9" s="1">
-        <v>70673.22779999999</v>
+        <v>70671.8812</v>
       </c>
       <c r="L9" s="1">
-        <v>13.1222</v>
+        <v>13.1494</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11698.0187</v>
+        <v>-11694.4096</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.06610000000000001</v>
+        <v>0.0655</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>13.3527</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E10" s="1">
-        <v>6292.4897</v>
+        <v>6279.1569</v>
       </c>
       <c r="F10" s="1">
-        <v>723.7147</v>
+        <v>747.4121</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>84021.7273</v>
+        <v>83676.0453</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>84021.7273</v>
+        <v>83676.0453</v>
       </c>
       <c r="K10" s="1">
-        <v>82371.24649999999</v>
+        <v>82366.2908</v>
       </c>
       <c r="L10" s="1">
-        <v>13.0904</v>
+        <v>13.1174</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9663.545400000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.035</v>
+        <v>0.0344</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>13.8804</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E11" s="1">
-        <v>7016.2044</v>
+        <v>7026.569</v>
       </c>
       <c r="F11" s="1">
-        <v>521.1955</v>
+        <v>525.9571999999999</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>97387.72380000001</v>
+        <v>97336.25</v>
       </c>
       <c r="I11" s="1">
-        <v>336.4546</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>97724.1784</v>
+        <v>97336.25</v>
       </c>
       <c r="K11" s="1">
-        <v>92034.7919</v>
+        <v>92366.2908</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1175</v>
+        <v>13.1453</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2831.6204</v>
+        <v>2825.6206</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-4402.7813</v>
+        <v>-4489.498</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0394</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>14.6268</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E12" s="1">
-        <v>7537.3999</v>
+        <v>7552.5263</v>
       </c>
       <c r="F12" s="1">
-        <v>370.5736</v>
+        <v>371.2658</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>110248.0407</v>
+        <v>110248.7575</v>
       </c>
       <c r="I12" s="1">
-        <v>5933.6733</v>
+        <v>5510.502</v>
       </c>
       <c r="J12" s="1">
-        <v>116181.714</v>
+        <v>115759.2595</v>
       </c>
       <c r="K12" s="1">
-        <v>99269.1936</v>
+        <v>99681.4094</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1702</v>
+        <v>13.1984</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,7 +3555,7 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-5420.306</v>
+        <v>-5441.3082</v>
       </c>
       <c r="Q12" s="3">
         <v>0.0785</v>
@@ -3569,34 +3569,34 @@
         <v>15.3636</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E13" s="1">
-        <v>7907.9735</v>
+        <v>7923.792</v>
       </c>
       <c r="F13" s="1">
-        <v>346.9297</v>
+        <v>347.6393</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>121494.9415</v>
+        <v>121494.711</v>
       </c>
       <c r="I13" s="1">
-        <v>10513.3674</v>
+        <v>10069.1938</v>
       </c>
       <c r="J13" s="1">
-        <v>132008.3089</v>
+        <v>131563.9048</v>
       </c>
       <c r="K13" s="1">
-        <v>104689.4995</v>
+        <v>105122.7176</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2385</v>
+        <v>13.2667</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,7 +3608,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5330.0886</v>
+        <v>-5351.699</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0462</v>
@@ -3622,49 +3622,49 @@
         <v>13.8711</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E14" s="1">
-        <v>8254.903200000001</v>
+        <v>8271.431399999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8254.903200000001</v>
+        <v>-8271.431399999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114504.5872</v>
+        <v>114504.7331</v>
       </c>
       <c r="I14" s="1">
-        <v>15183.2788</v>
+        <v>14717.4948</v>
       </c>
       <c r="J14" s="1">
-        <v>129687.8659</v>
+        <v>129222.2279</v>
       </c>
       <c r="K14" s="1">
-        <v>110019.5881</v>
+        <v>110474.4166</v>
       </c>
       <c r="L14" s="1">
-        <v>13.3278</v>
+        <v>13.3561</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3558.5881</v>
+        <v>3565.7064</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118063.1752</v>
+        <v>118070.4395</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0868</v>
+        <v>-0.0872</v>
       </c>
     </row>
   </sheetData>
@@ -3688,7 +3688,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -3760,16 +3760,16 @@
         <v>13.5636</v>
       </c>
       <c r="C2" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D2" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.1788</v>
       </c>
       <c r="C3" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D3" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E3" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9716.299499999999</v>
+        <v>9677.4288</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9716.299499999999</v>
+        <v>9677.4288</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0284</v>
+        <v>-0.0323</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>14.5668</v>
       </c>
       <c r="C4" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D4" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E4" s="1">
-        <v>1496.0618</v>
+        <v>1493.0693</v>
       </c>
       <c r="F4" s="1">
-        <v>594.4625</v>
+        <v>601.6396</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21792.8333</v>
+        <v>21705.7935</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21792.8333</v>
+        <v>21705.7935</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.3684</v>
+        <v>13.3952</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8659.4167</v>
+        <v>-8781.5321</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.1053</v>
+        <v>0.1031</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>13.962</v>
       </c>
       <c r="C5" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D5" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E5" s="1">
-        <v>2090.5243</v>
+        <v>2094.7089</v>
       </c>
       <c r="F5" s="1">
-        <v>812.2463</v>
+        <v>801.8919</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29187.9009</v>
+        <v>29187.8837</v>
       </c>
       <c r="I5" s="1">
-        <v>1340.5833</v>
+        <v>1218.4679</v>
       </c>
       <c r="J5" s="1">
-        <v>30528.4842</v>
+        <v>30406.3516</v>
       </c>
       <c r="K5" s="1">
-        <v>28659.4167</v>
+        <v>28781.5321</v>
       </c>
       <c r="L5" s="1">
-        <v>13.7092</v>
+        <v>13.7401</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>673.2278</v>
+        <v>671.8812</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10667.3555</v>
+        <v>-10546.5867</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0398</v>
+        <v>-0.041</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>12.2659</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E6" s="1">
-        <v>2902.7707</v>
+        <v>2896.6008</v>
       </c>
       <c r="F6" s="1">
-        <v>870.1545</v>
+        <v>868.3033</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>35605.0948</v>
+        <v>35458.4496</v>
       </c>
       <c r="I6" s="1">
-        <v>673.2278</v>
+        <v>671.8812</v>
       </c>
       <c r="J6" s="1">
-        <v>36278.3227</v>
+        <v>36130.3308</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.7799</v>
+        <v>13.8093</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10673.2278</v>
+        <v>-10671.8812</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.1049</v>
+        <v>-0.1058</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>12.4103</v>
       </c>
       <c r="C7" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D7" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E7" s="1">
-        <v>3772.9252</v>
+        <v>3764.9041</v>
       </c>
       <c r="F7" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>46823.1331</v>
+        <v>46630.2198</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>46823.1331</v>
+        <v>46630.2198</v>
       </c>
       <c r="K7" s="1">
-        <v>50673.2278</v>
+        <v>50671.8812</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4308</v>
+        <v>13.459</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0118</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>12.3976</v>
       </c>
       <c r="C8" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D8" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E8" s="1">
-        <v>4578.7074</v>
+        <v>4569.0729</v>
       </c>
       <c r="F8" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>56764.9835</v>
+        <v>56532.2253</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>56764.9835</v>
+        <v>56532.2253</v>
       </c>
       <c r="K8" s="1">
-        <v>60673.2278</v>
+        <v>60671.8812</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2512</v>
+        <v>13.2788</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1697.8163</v>
+        <v>1694.2068</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8302.1837</v>
+        <v>-8305.7932</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.001</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>12.9013</v>
       </c>
       <c r="C9" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D9" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E9" s="1">
-        <v>5385.3152</v>
+        <v>5374.0703</v>
       </c>
       <c r="F9" s="1">
-        <v>906.7091</v>
+        <v>904.6202</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>69477.5667</v>
+        <v>69193.8426</v>
       </c>
       <c r="I9" s="1">
-        <v>1697.8163</v>
+        <v>1694.2068</v>
       </c>
       <c r="J9" s="1">
-        <v>71175.383</v>
+        <v>70888.04949999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70673.22779999999</v>
+        <v>70671.8812</v>
       </c>
       <c r="L9" s="1">
-        <v>13.1233</v>
+        <v>13.1505</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11697.8163</v>
+        <v>-11694.2068</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.06610000000000001</v>
+        <v>0.0655</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>13.3527</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E10" s="1">
-        <v>6292.0242</v>
+        <v>6278.6906</v>
       </c>
       <c r="F10" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>84015.51210000001</v>
+        <v>83669.83070000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>84015.51210000001</v>
+        <v>83669.83070000001</v>
       </c>
       <c r="K10" s="1">
-        <v>82371.0441</v>
+        <v>82366.088</v>
       </c>
       <c r="L10" s="1">
-        <v>13.0913</v>
+        <v>13.1184</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.035</v>
+        <v>0.0344</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>13.8804</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E11" s="1">
-        <v>7040.9364</v>
+        <v>7026.1027</v>
       </c>
       <c r="F11" s="1">
-        <v>669.7359</v>
+        <v>700.0438</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>97731.0143</v>
+        <v>97329.7898</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>97731.0143</v>
+        <v>97329.7898</v>
       </c>
       <c r="K11" s="1">
-        <v>92371.0441</v>
+        <v>92366.088</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1191</v>
+        <v>13.1461</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2831.4109</v>
+        <v>2825.4108</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6464.7915</v>
+        <v>-6910.9385</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0395</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>14.6268</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E12" s="1">
-        <v>7710.6724</v>
+        <v>7726.1465</v>
       </c>
       <c r="F12" s="1">
-        <v>399.9619</v>
+        <v>400.7117</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>112782.4625</v>
+        <v>112783.1958</v>
       </c>
       <c r="I12" s="1">
-        <v>3535.2085</v>
+        <v>3089.0615</v>
       </c>
       <c r="J12" s="1">
-        <v>116317.671</v>
+        <v>115872.2573</v>
       </c>
       <c r="K12" s="1">
-        <v>101667.2465</v>
+        <v>102102.4373</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1853</v>
+        <v>13.2152</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-5850.1624</v>
+        <v>-5872.8708</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.07969999999999999</v>
+        <v>0.0796</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>15.3636</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E13" s="1">
-        <v>8110.6342</v>
+        <v>8126.8582</v>
       </c>
       <c r="F13" s="1">
-        <v>377.7483</v>
+        <v>378.5201</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>124608.5402</v>
+        <v>124608.3038</v>
       </c>
       <c r="I13" s="1">
-        <v>7685.0461</v>
+        <v>7216.1907</v>
       </c>
       <c r="J13" s="1">
-        <v>132293.5864</v>
+        <v>131824.4945</v>
       </c>
       <c r="K13" s="1">
-        <v>107517.4089</v>
+        <v>107975.3081</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2564</v>
+        <v>13.2862</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5803.5741</v>
+        <v>-5827.0895</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0473</v>
@@ -4390,49 +4390,49 @@
         <v>13.8711</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E14" s="1">
-        <v>8488.382600000001</v>
+        <v>8505.3783</v>
       </c>
       <c r="F14" s="1">
-        <v>-8488.382600000001</v>
+        <v>-8505.3783</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>117743.2033</v>
+        <v>117743.3534</v>
       </c>
       <c r="I14" s="1">
-        <v>11881.472</v>
+        <v>11389.1012</v>
       </c>
       <c r="J14" s="1">
-        <v>129624.6754</v>
+        <v>129132.4546</v>
       </c>
       <c r="K14" s="1">
-        <v>113320.983</v>
+        <v>113802.3976</v>
       </c>
       <c r="L14" s="1">
-        <v>13.3501</v>
+        <v>13.3801</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3649.7854</v>
+        <v>3657.0862</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121392.9887</v>
+        <v>121400.4396</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.089</v>
+        <v>-0.0895</v>
       </c>
     </row>
   </sheetData>
@@ -4451,10 +4451,10 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5106</v>
+        <v>13.5376</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2939</v>
+        <v>13.3233</v>
       </c>
       <c r="E3" s="1">
-        <v>13.3087</v>
+        <v>13.3396</v>
       </c>
       <c r="F3" s="1">
-        <v>13.3278</v>
+        <v>13.3561</v>
       </c>
       <c r="G3" s="1">
-        <v>13.3501</v>
+        <v>13.3801</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0468</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1115</v>
+        <v>0.09909999999999999</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1211</v>
+        <v>0.1092</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1217</v>
+        <v>0.1094</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1216</v>
+        <v>0.1097</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1216</v>
+        <v>0.1094</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.2183</v>
       </c>
       <c r="C5" s="3">
-        <v>0.221</v>
+        <v>0.2212</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2109</v>
+        <v>0.2117</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2132</v>
+        <v>0.2139</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2152</v>
+        <v>0.2157</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2169</v>
+        <v>0.2174</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.1215</v>
       </c>
       <c r="C6" s="4">
-        <v>0.4127</v>
+        <v>0.3562</v>
       </c>
       <c r="D6" s="4">
-        <v>0.4776</v>
+        <v>0.4198</v>
       </c>
       <c r="E6" s="4">
-        <v>0.4755</v>
+        <v>0.4166</v>
       </c>
       <c r="F6" s="4">
-        <v>0.4706</v>
+        <v>0.4143</v>
       </c>
       <c r="G6" s="4">
-        <v>0.4669</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1973</v>
+        <v>0.1886</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2231</v>
+        <v>0.2149</v>
       </c>
       <c r="E7" s="3">
-        <v>0.222</v>
+        <v>0.2134</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2199</v>
+        <v>0.2116</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2178</v>
+        <v>0.2092</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>8938.718800000001</v>
+        <v>8920.5723</v>
       </c>
       <c r="D8" s="1">
-        <v>8548.7037</v>
+        <v>8555.369000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>8675.5398</v>
+        <v>8670.0137</v>
       </c>
       <c r="F8" s="1">
-        <v>8761.455</v>
+        <v>8757.617899999999</v>
       </c>
       <c r="G8" s="1">
-        <v>8852.2405</v>
+        <v>8848.584999999999</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P27_KFSDIV.xlsx
+++ b/output/1Y_P27_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5636</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.1788</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.5668</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.962</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2659</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.4103</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.3976</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.9013</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3527</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8804</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6268</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3636</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8711</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5636</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.1788</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.5668</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.962</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2659</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.4103</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.3976</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.9013</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3527</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8804</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6268</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3636</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8711</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5636</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.1788</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.5668</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.962</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2659</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.4103</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.3976</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.9013</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3527</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8804</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6268</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3636</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8711</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5636</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.1788</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.5668</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.962</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2659</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.4103</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.3976</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.9013</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3527</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8804</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6268</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3636</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8711</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5636</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.1788</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.5668</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.962</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2659</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.4103</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.3976</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.9013</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3527</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8804</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6268</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3636</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8711</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>10020.6357</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0222</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.248</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.2134</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.1793</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.1447</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
